--- a/biology/Botanique/Alvan_Wentworth_Chapman/Alvan_Wentworth_Chapman.xlsx
+++ b/biology/Botanique/Alvan_Wentworth_Chapman/Alvan_Wentworth_Chapman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alvan Wentworth Chapman (né le 28 septembre 1809 à Southampton (Massachusetts) – mort le 6 avril 1899), est un médecin américain et un botaniste pionnier dans l'étude de la flore du sud-est américain[1]:50. Il écrit Flora of the Southern United States (en), la première description complète des plantes américaines dans n'importe quelle région au-delà des états du nord-est[1]. Chapman est un leader dans les domaines de la théorie de la hiérarchie, de la théorie des systèmes et de la complexité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvan Wentworth Chapman (né le 28 septembre 1809 à Southampton (Massachusetts) – mort le 6 avril 1899), est un médecin américain et un botaniste pionnier dans l'étude de la flore du sud-est américain:50. Il écrit Flora of the Southern United States (en), la première description complète des plantes américaines dans n'importe quelle région au-delà des états du nord-est. Chapman est un leader dans les domaines de la théorie de la hiérarchie, de la théorie des systèmes et de la complexité.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alvan Wentworth Chapman naît le 28 septembre 1809 à Southampton dans le Massachusetts[2]. Il est le plus jeune de cinq enfants. En 1830, il obtient un diplôme en lettres classiques du Amherst College. Il a déménagé en Géorgie, puis en Floride où il a occupé divers postes d'enseignement, et a épousé Mary Ann Hancock en 1839. Au début des années 1840, il a reçu une éducation médicale, acquérant son doctorat en médecine en 1846. En 1847, il s'installe à Apalachicola, en Floride, où il passe le reste de sa vie à travailler comme médecin et botaniste, en collaboration avec Asa Gray[3].
-Travaux botaniques
-Son intérêt botanique semble avoir commencé lorsqu'il vivait en Géorgie, à côté des régions botaniquement inexplorées du nord de la Floride. Travaillant dans l'isolement, dans ses temps libres, il avait un manuscrit en 1859, et a visité l'Université Harvard pendant cinq mois, consultant Asa Gray et organisant la publication de Flora of the Southern States, qui a eu lieu en 1860[1]:50. Chapman a publié une deuxième édition en 1884 et une troisième édition en 1897.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvan Wentworth Chapman naît le 28 septembre 1809 à Southampton dans le Massachusetts. Il est le plus jeune de cinq enfants. En 1830, il obtient un diplôme en lettres classiques du Amherst College. Il a déménagé en Géorgie, puis en Floride où il a occupé divers postes d'enseignement, et a épousé Mary Ann Hancock en 1839. Au début des années 1840, il a reçu une éducation médicale, acquérant son doctorat en médecine en 1846. En 1847, il s'installe à Apalachicola, en Floride, où il passe le reste de sa vie à travailler comme médecin et botaniste, en collaboration avec Asa Gray.
 </t>
         </is>
       </c>
@@ -541,12 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chapman, A.W. Flora of the Southern United States. Ivison, Phinney and Co., New York. 1860. lire en ligne.</t>
+          <t>Travaux botaniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son intérêt botanique semble avoir commencé lorsqu'il vivait en Géorgie, à côté des régions botaniquement inexplorées du nord de la Floride. Travaillant dans l'isolement, dans ses temps libres, il avait un manuscrit en 1859, et a visité l'Université Harvard pendant cinq mois, consultant Asa Gray et organisant la publication de Flora of the Southern States, qui a eu lieu en 1860:50. Chapman a publié une deuxième édition en 1884 et une troisième édition en 1897.
+</t>
         </is>
       </c>
     </row>
@@ -571,10 +590,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chapman, A.W. Flora of the Southern United States. Ivison, Phinney and Co., New York. 1860. lire en ligne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alvan_Wentworth_Chapman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alvan_Wentworth_Chapman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Memorials</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sa mémoire est honorée par le genre Chapmania.
 Chapman High School et Chapman Elementary School à Apalachicola sont nommées en son honneur
